--- a/Merilna oprema.xlsx
+++ b/Merilna oprema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/vrtac_fs1_uni-lj_si/Documents/Documents/Doktorat/Projekt_1/Faza V - nova struktura/Eksperiment/notebooks-ni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/vrtac_fs1_uni-lj_si/Documents/Documents/Doktorat/Projekt_1/Faza V - nova struktura/Eksperiment/Impact testing v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{D8C0E4B4-90D8-440C-A191-4C23A391F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC697BF4-BA7E-44D5-B92F-139B99160C2C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{D8C0E4B4-90D8-440C-A191-4C23A391F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8F31F1-2346-4A69-BC75-E9E23898E247}"/>
   <bookViews>
-    <workbookView xWindow="87180" yWindow="780" windowWidth="18900" windowHeight="10965" xr2:uid="{BA12A476-02EB-496D-9FD7-3A34AAF1406E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA12A476-02EB-496D-9FD7-3A34AAF1406E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>45250</t>
+  </si>
+  <si>
+    <t>084A14</t>
+  </si>
+  <si>
+    <t>34788</t>
   </si>
 </sst>
 </file>
@@ -611,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB995EC-0121-456F-A805-EABFC5775035}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,980 +700,1009 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-200</v>
+      </c>
+      <c r="G3" s="4">
+        <v>200</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23.53</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="F4" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4">
         <v>101.9</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>-45</v>
-      </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4">
+      <c r="F5">
+        <v>-45</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
         <v>100.5</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
-        <v>-45</v>
-      </c>
-      <c r="G5">
-        <v>45</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="F6">
+        <v>-45</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8">
         <v>103.3</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G6" s="4">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="F7" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4">
         <v>101.19</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
-        <v>-45</v>
-      </c>
-      <c r="G7">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7">
+      <c r="F8">
+        <v>-45</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
         <v>100.6</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>-45</v>
-      </c>
-      <c r="G8">
-        <v>45</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="F9">
+        <v>-45</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="8">
         <v>103.83</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>177269</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="F10" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
         <v>101.48</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1">
-        <v>177269</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>-45</v>
-      </c>
-      <c r="G10">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10">
-        <v>105.21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="1">
         <v>177269</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>-45</v>
+      </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>105.21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7">
+        <v>177269</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11">
-        <v>-45</v>
-      </c>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="F12">
+        <v>-45</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8">
         <v>100.4</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="F13" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="4">
         <v>98.2</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F13">
-        <v>-45</v>
-      </c>
-      <c r="G13">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13">
+      <c r="F14">
+        <v>-45</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
         <v>102.1</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14">
-        <v>-45</v>
-      </c>
-      <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="F15">
+        <v>-45</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="8">
         <v>100.3</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="F16" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="4">
         <v>98.83</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F16">
-        <v>-45</v>
-      </c>
-      <c r="G16">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16">
+      <c r="F17">
+        <v>-45</v>
+      </c>
+      <c r="G17">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
         <v>99.72</v>
       </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17">
-        <v>-45</v>
-      </c>
-      <c r="G17">
-        <v>45</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="F18">
+        <v>-45</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="8">
         <v>103.25</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="F19" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="4">
         <v>102.62</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F19">
-        <v>-45</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19">
+      <c r="F20">
+        <v>-45</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20">
         <v>100.9</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F20">
-        <v>-45</v>
-      </c>
-      <c r="G20">
-        <v>45</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="F21">
+        <v>-45</v>
+      </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="8">
         <v>101.14</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="J21" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="F22" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="4">
         <v>100.62</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
-        <v>-45</v>
-      </c>
-      <c r="G22">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22">
+      <c r="F23">
+        <v>-45</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23">
         <v>101.43</v>
       </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F23">
-        <v>-45</v>
-      </c>
-      <c r="G23">
-        <v>45</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="F24">
+        <v>-45</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="8">
         <v>101.42</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="F25" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="4">
         <v>102.5</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F25">
-        <v>-45</v>
-      </c>
-      <c r="G25">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25">
+      <c r="F26">
+        <v>-45</v>
+      </c>
+      <c r="G26">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26">
         <v>98.8</v>
       </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F26">
-        <v>-45</v>
-      </c>
-      <c r="G26">
-        <v>45</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="F27">
+        <v>-45</v>
+      </c>
+      <c r="G27">
+        <v>45</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="8">
         <v>101.6</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="J27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="F28" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="4">
         <v>107.82</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F28">
-        <v>-45</v>
-      </c>
-      <c r="G28">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28">
+      <c r="F29">
+        <v>-45</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29">
         <v>107.45</v>
       </c>
-      <c r="J28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F29">
-        <v>-45</v>
-      </c>
-      <c r="G29">
-        <v>45</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="F30">
+        <v>-45</v>
+      </c>
+      <c r="G30">
+        <v>45</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="8">
         <v>109.28</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="J30" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="4">
-        <v>-45</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="F31" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="4">
         <v>100.5</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F31">
-        <v>-45</v>
-      </c>
-      <c r="G31">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31">
+      <c r="F32">
+        <v>-45</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32">
         <v>100.99</v>
       </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F32">
-        <v>-45</v>
-      </c>
-      <c r="G32">
-        <v>45</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="8">
+      <c r="F33">
+        <v>-45</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="8">
         <v>98.74</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:C2 C18 C19:C26" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Merilna oprema.xlsx
+++ b/Merilna oprema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/vrtac_fs1_uni-lj_si/Documents/Documents/Doktorat/Projekt_1/Faza V - nova struktura/Eksperiment/Impact testing v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/vrtac_fs1_uni-lj_si/Documents/Documents/Doktorat/Python_scripts/Impact testing v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{D8C0E4B4-90D8-440C-A191-4C23A391F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8F31F1-2346-4A69-BC75-E9E23898E247}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{D8C0E4B4-90D8-440C-A191-4C23A391F473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCAF0F1-D406-474E-A3E5-A7F4952F8773}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA12A476-02EB-496D-9FD7-3A34AAF1406E}"/>
+    <workbookView xWindow="98895" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{BA12A476-02EB-496D-9FD7-3A34AAF1406E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -164,10 +164,19 @@
     <t>45250</t>
   </si>
   <si>
-    <t>084A14</t>
-  </si>
-  <si>
     <t>34788</t>
+  </si>
+  <si>
+    <t>T333B30</t>
+  </si>
+  <si>
+    <t>53360</t>
+  </si>
+  <si>
+    <t>359598</t>
+  </si>
+  <si>
+    <t>LW164400</t>
   </si>
 </sst>
 </file>
@@ -617,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB995EC-0121-456F-A805-EABFC5775035}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,11 +713,11 @@
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1685,10 +1694,10 @@
       <c r="E33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F33">
-        <v>-45</v>
-      </c>
-      <c r="G33">
+      <c r="F33" s="8">
+        <v>-45</v>
+      </c>
+      <c r="G33" s="8">
         <v>45</v>
       </c>
       <c r="H33" s="8" t="s">
@@ -1698,6 +1707,230 @@
         <v>98.74</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="8">
+        <v>-45</v>
+      </c>
+      <c r="G34" s="8">
+        <v>45</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="8">
+        <v>100.5</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-45</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="4">
+        <v>102.5</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>-45</v>
+      </c>
+      <c r="G36">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36">
+        <v>101.4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-45</v>
+      </c>
+      <c r="G37" s="8">
+        <v>45</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="8">
+        <v>99.5</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>-45</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38">
+        <v>97.95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>-45</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>100.21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8">
+        <v>-45</v>
+      </c>
+      <c r="G40" s="8">
+        <v>45</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="8">
+        <v>99.81</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>17</v>
       </c>
     </row>
